--- a/MySQL/MySQL-mycat.xlsx
+++ b/MySQL/MySQL-mycat.xlsx
@@ -39,7 +39,7 @@
     export CLASSPATH=.:${JAVA_HOME}/jre/lib/rt.jar:${JAVA_HOME}/lib/dt.jar:${JAVA_HOME}/lib/tools.jar
     export PATH=$PATH:${JAVA_HOME}/bin
 #保存退出
-刷新环境配置使其生效
+#刷新环境配置使其生效
 ③：source /etc/profile</t>
   </si>
 </sst>
@@ -48,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,9 +136,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,83 +189,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,38 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +428,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,30 +456,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -492,31 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,165 +499,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,137 +1058,137 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="2:11">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="2:11">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="2:11">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="2:11">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="2:11">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="2:11">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/MySQL/MySQL-mycat.xlsx
+++ b/MySQL/MySQL-mycat.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Linux下配置mycat环境</t>
   </si>
   <si>
-    <t>1:</t>
-  </si>
-  <si>
-    <t>下载jdk8 -&gt; 解压</t>
+    <t>1：</t>
+  </si>
+  <si>
+    <t>下载jdk8.tar.gz包 -&gt; 解压</t>
   </si>
   <si>
     <t>2：</t>
@@ -33,14 +33,444 @@
     <t>配置Linux系统下环境变量</t>
   </si>
   <si>
-    <t>①：vim /etc/profile
+    <r>
+      <t>①：vim /etc/profile
 #在文件最底部输入
-②：export JAVA_HOME=你的jdk解压位置文件名称
+②：export JAVA_HOME=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的jdk解压位置文件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     export CLASSPATH=.:${JAVA_HOME}/jre/lib/rt.jar:${JAVA_HOME}/lib/dt.jar:${JAVA_HOME}/lib/tools.jar
     export PATH=$PATH:${JAVA_HOME}/bin
 #保存退出
 #刷新环境配置使其生效
 ③：source /etc/profile</t>
+    </r>
+  </si>
+  <si>
+    <t>3：</t>
+  </si>
+  <si>
+    <t>wget下载mycat.tar.gz包 -&gt; 解压</t>
+  </si>
+  <si>
+    <t>4：</t>
+  </si>
+  <si>
+    <t>mycat操作命令：</t>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat console</t>
+  </si>
+  <si>
+    <t>可视化启动</t>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat start</t>
+  </si>
+  <si>
+    <t>以守护进程方式启动</t>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat stop</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mycat/bin/mycat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 创建软连接到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/usr/bin/mycat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中可省区前面目录操作</t>
+    </r>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat restart</t>
+  </si>
+  <si>
+    <t>重新启动</t>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat status</t>
+  </si>
+  <si>
+    <t>查看状态</t>
+  </si>
+  <si>
+    <t>mycat的bin目录/mycat dump</t>
+  </si>
+  <si>
+    <t>导出数据</t>
+  </si>
+  <si>
+    <t>5：</t>
+  </si>
+  <si>
+    <r>
+      <t>mycat连接MySQL命令：mysql -u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -p -h127.0.0.1 -P8066 -D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TESTDB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF171CFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--default_auth=mysql_native_passworrd  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：账号密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不是MySQL的账号密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而是mycat中conf下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置的账号密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TESTDB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：mycat默认练级的数据库，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mycat中conf下schema.xml文件配置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>--default_auth=mysql_native_passworrd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：MySQL5.7及以上版本需要加上，可能因为密码加密方式不对报密码错误</t>
+    </r>
+  </si>
+  <si>
+    <t>6：</t>
+  </si>
+  <si>
+    <t>mycat的配置文件：</t>
+  </si>
+  <si>
+    <t>配置文件在mycat下conf文件夹中</t>
+  </si>
+  <si>
+    <t>server.xml</t>
+  </si>
+  <si>
+    <t>主要用来配置连接mycat的账号密码在标签&lt;user&gt;中</t>
+  </si>
+  <si>
+    <t>schema.xml</t>
+  </si>
+  <si>
+    <t>标签：</t>
+  </si>
+  <si>
+    <t>&lt;schema&gt;</t>
+  </si>
+  <si>
+    <t>：数据库配置</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;</t>
+  </si>
+  <si>
+    <t>：数据库的表配置</t>
+  </si>
+  <si>
+    <t>&lt;dataNode&gt;</t>
+  </si>
+  <si>
+    <t>：数据库配置节点  =》  name：节点名称(自定义)  dataHost：数据库源name  database：连接的数据库</t>
+  </si>
+  <si>
+    <t>&lt;dataHost&gt;</t>
+  </si>
+  <si>
+    <t>：配置数据库源</t>
+  </si>
+  <si>
+    <t>&lt;heartbate&gt;</t>
+  </si>
+  <si>
+    <t>：检测心跳</t>
+  </si>
+  <si>
+    <t>&lt;writeHost&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>：数据库实例  配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[主]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库连接地址、账号、密码【写】</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;readHost&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>：配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[从]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库连接地址、账号、密码【读】【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF171CFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不配置读、写操作都在writeHost配置的库中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>rule.xml</t>
+  </si>
+  <si>
+    <t>规则【不建议直接修改源码，建议新增】</t>
   </si>
 </sst>
 </file>
@@ -48,12 +478,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,15 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -84,6 +508,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF83DED"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF171CFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,9 +539,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,14 +607,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,72 +645,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,14 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -220,9 +668,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,187 +715,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,24 +911,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +950,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,13 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,151 +1026,178 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -747,6 +1252,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00171CFF"/>
+      <color rgb="00F83DED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,158 +1553,397 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.625" customWidth="1"/>
+    <col min="2" max="16384" width="20.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="2:11">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="2:11">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="2:11">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="2:11">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="2:11">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="2:11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:11">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:6">
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:8">
+      <c r="C25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:11">
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" customHeight="1" spans="4:5">
+      <c r="D30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="5:6">
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="4:5">
+      <c r="D32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="4:5">
+      <c r="D33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="4:6">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="4:6">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="4:7">
+      <c r="D36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" customHeight="1" spans="4:4">
+      <c r="D38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="23">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="B6:K11"/>
   </mergeCells>
